--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H2">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I2">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J2">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N2">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O2">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P2">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q2">
-        <v>397.4174169336768</v>
+        <v>482.4911242016228</v>
       </c>
       <c r="R2">
-        <v>1589.669667734707</v>
+        <v>1929.964496806491</v>
       </c>
       <c r="S2">
-        <v>0.1776341053536912</v>
+        <v>0.128906930623797</v>
       </c>
       <c r="T2">
-        <v>0.1099606452280144</v>
+        <v>0.07586015258962348</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H3">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I3">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J3">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P3">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q3">
-        <v>95.02018205185449</v>
+        <v>74.1042823245095</v>
       </c>
       <c r="R3">
-        <v>570.121092311127</v>
+        <v>444.625693947057</v>
       </c>
       <c r="S3">
-        <v>0.04247127657251838</v>
+        <v>0.01979840685429894</v>
       </c>
       <c r="T3">
-        <v>0.03943642156673149</v>
+        <v>0.017476680552364</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H4">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I4">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J4">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N4">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O4">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P4">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q4">
-        <v>17.918856097554</v>
+        <v>31.27825947997667</v>
       </c>
       <c r="R4">
-        <v>107.513136585324</v>
+        <v>187.66955687986</v>
       </c>
       <c r="S4">
-        <v>0.008009211061783273</v>
+        <v>0.008356598127043664</v>
       </c>
       <c r="T4">
-        <v>0.00743689969643607</v>
+        <v>0.007376633738543143</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H5">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I5">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J5">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N5">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O5">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P5">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q5">
-        <v>43.7980446690925</v>
+        <v>45.75108486703775</v>
       </c>
       <c r="R5">
-        <v>175.19217867637</v>
+        <v>183.004339468151</v>
       </c>
       <c r="S5">
-        <v>0.01957646079294412</v>
+        <v>0.01222329619571238</v>
       </c>
       <c r="T5">
-        <v>0.01211839503335743</v>
+        <v>0.007193260362866224</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H6">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I6">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J6">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N6">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O6">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P6">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q6">
-        <v>286.5109231663844</v>
+        <v>843.8466925630173</v>
       </c>
       <c r="R6">
-        <v>1719.065538998306</v>
+        <v>5063.080155378104</v>
       </c>
       <c r="S6">
-        <v>0.1280621063450129</v>
+        <v>0.2254501307880755</v>
       </c>
       <c r="T6">
-        <v>0.1189112176537072</v>
+        <v>0.1990119682491693</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H7">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I7">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J7">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N7">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O7">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P7">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q7">
-        <v>25.56052326137</v>
+        <v>9.003522312400502</v>
       </c>
       <c r="R7">
-        <v>153.36313956822</v>
+        <v>54.02113387440301</v>
       </c>
       <c r="S7">
-        <v>0.011424815542655</v>
+        <v>0.002405466894370108</v>
       </c>
       <c r="T7">
-        <v>0.01060843653458314</v>
+        <v>0.002123381785290729</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>21.562193</v>
       </c>
       <c r="I8">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J8">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N8">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O8">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P8">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q8">
-        <v>39.89710429341217</v>
+        <v>62.1092608518065</v>
       </c>
       <c r="R8">
-        <v>239.382625760473</v>
+        <v>372.655565110839</v>
       </c>
       <c r="S8">
-        <v>0.01783285312970044</v>
+        <v>0.0165937025120766</v>
       </c>
       <c r="T8">
-        <v>0.01655857724360303</v>
+        <v>0.0146477865678143</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>21.562193</v>
       </c>
       <c r="I9">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J9">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P9">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q9">
         <v>9.539164494983664</v>
@@ -1013,10 +1013,10 @@
         <v>85.85248045485299</v>
       </c>
       <c r="S9">
-        <v>0.00426373097576371</v>
+        <v>0.002548574168692886</v>
       </c>
       <c r="T9">
-        <v>0.00593858858657961</v>
+        <v>0.003374560660716559</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>21.562193</v>
       </c>
       <c r="I10">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J10">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N10">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O10">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P10">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q10">
-        <v>1.798890637604</v>
+        <v>4.026332256882222</v>
       </c>
       <c r="R10">
-        <v>16.190015738436</v>
+        <v>36.23699031194</v>
       </c>
       <c r="S10">
-        <v>0.000804052151275607</v>
+        <v>0.001075713327918928</v>
       </c>
       <c r="T10">
-        <v>0.001119895921136259</v>
+        <v>0.001424349317824834</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>21.562193</v>
       </c>
       <c r="I11">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J11">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N11">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O11">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P11">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q11">
-        <v>4.396926459571667</v>
+        <v>5.889364429163167</v>
       </c>
       <c r="R11">
-        <v>26.38155875743</v>
+        <v>35.336186574979</v>
       </c>
       <c r="S11">
-        <v>0.00196529911541932</v>
+        <v>0.001573458772209764</v>
       </c>
       <c r="T11">
-        <v>0.00182486543082981</v>
+        <v>0.001388941874292978</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>21.562193</v>
       </c>
       <c r="I12">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J12">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N12">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O12">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P12">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q12">
-        <v>28.76309818268156</v>
+        <v>108.6251989278652</v>
       </c>
       <c r="R12">
-        <v>258.8678836441341</v>
+        <v>977.6267903507871</v>
       </c>
       <c r="S12">
-        <v>0.0128562740211602</v>
+        <v>0.02902134418609347</v>
       </c>
       <c r="T12">
-        <v>0.01790641168544331</v>
+        <v>0.03842708900315617</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>21.562193</v>
       </c>
       <c r="I13">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J13">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N13">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O13">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P13">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q13">
-        <v>2.566044714953334</v>
+        <v>1.158989435943</v>
       </c>
       <c r="R13">
-        <v>23.09440243458</v>
+        <v>10.430904923487</v>
       </c>
       <c r="S13">
-        <v>0.001146947863420823</v>
+        <v>0.0003096466718637214</v>
       </c>
       <c r="T13">
-        <v>0.001597486222707274</v>
+        <v>0.0004100023811074892</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H14">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I14">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J14">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N14">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O14">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P14">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q14">
-        <v>175.4565647512123</v>
+        <v>254.48916540913</v>
       </c>
       <c r="R14">
-        <v>1052.739388507274</v>
+        <v>1526.93499245478</v>
       </c>
       <c r="S14">
-        <v>0.07842401611003104</v>
+        <v>0.06799175268599145</v>
       </c>
       <c r="T14">
-        <v>0.07282009889649846</v>
+        <v>0.06001847273031431</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H15">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I15">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J15">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P15">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q15">
-        <v>41.95063933907932</v>
+        <v>39.08618421367333</v>
       </c>
       <c r="R15">
-        <v>377.555754051714</v>
+        <v>351.77565792306</v>
       </c>
       <c r="S15">
-        <v>0.0187507239755834</v>
+        <v>0.01044263776897057</v>
       </c>
       <c r="T15">
-        <v>0.02611629017507583</v>
+        <v>0.01382707046244394</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H16">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I16">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J16">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N16">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O16">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P16">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q16">
-        <v>7.911029565352</v>
+        <v>16.49766752431111</v>
       </c>
       <c r="R16">
-        <v>71.199266088168</v>
+        <v>148.4790077188</v>
       </c>
       <c r="S16">
-        <v>0.003536001693409481</v>
+        <v>0.004407674206504477</v>
       </c>
       <c r="T16">
-        <v>0.004924996304403668</v>
+        <v>0.005836190355077503</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H17">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I17">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J17">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N17">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O17">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P17">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q17">
-        <v>19.33648132422334</v>
+        <v>24.13133593626334</v>
       </c>
       <c r="R17">
-        <v>116.01888794534</v>
+        <v>144.78801561758</v>
       </c>
       <c r="S17">
-        <v>0.008642848587811116</v>
+        <v>0.006447157867500052</v>
       </c>
       <c r="T17">
-        <v>0.00802525960961805</v>
+        <v>0.005691110368130095</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H18">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I18">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J18">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N18">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O18">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P18">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q18">
-        <v>126.4922476984991</v>
+        <v>445.0855772299712</v>
       </c>
       <c r="R18">
-        <v>1138.430229286492</v>
+        <v>4005.770195069741</v>
       </c>
       <c r="S18">
-        <v>0.05653838079736249</v>
+        <v>0.1189133079299111</v>
       </c>
       <c r="T18">
-        <v>0.07874750654191273</v>
+        <v>0.1574528125982541</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H19">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I19">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J19">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N19">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O19">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P19">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q19">
-        <v>11.28476361022667</v>
+        <v>4.748893324860001</v>
       </c>
       <c r="R19">
-        <v>101.56287249204</v>
+        <v>42.74003992374001</v>
       </c>
       <c r="S19">
-        <v>0.005043963355951852</v>
+        <v>0.001268759634450249</v>
       </c>
       <c r="T19">
-        <v>0.007025307972535991</v>
+        <v>0.001679961447822739</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H20">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I20">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J20">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N20">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O20">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P20">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q20">
-        <v>18.90869067029475</v>
+        <v>39.74990960472375</v>
       </c>
       <c r="R20">
-        <v>75.634762681179</v>
+        <v>158.999638418895</v>
       </c>
       <c r="S20">
-        <v>0.008451638522898545</v>
+        <v>0.01061996497489371</v>
       </c>
       <c r="T20">
-        <v>0.005231808516508821</v>
+        <v>0.006249719542567166</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H21">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I21">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J21">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P21">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q21">
-        <v>4.520957444986499</v>
+        <v>6.105062613527499</v>
       </c>
       <c r="R21">
-        <v>27.125744669919</v>
+        <v>36.630375681165</v>
       </c>
       <c r="S21">
-        <v>0.002020737383073244</v>
+        <v>0.001631086756420957</v>
       </c>
       <c r="T21">
-        <v>0.001876342265777223</v>
+        <v>0.001439811920471315</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H22">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I22">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J22">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N22">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O22">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P22">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q22">
-        <v>0.852559783938</v>
+        <v>2.576851520283333</v>
       </c>
       <c r="R22">
-        <v>5.115358703628</v>
+        <v>15.4611091217</v>
       </c>
       <c r="S22">
-        <v>0.0003810695959146568</v>
+        <v>0.000688456229537149</v>
       </c>
       <c r="T22">
-        <v>0.0003538396404236767</v>
+        <v>0.0006077221104936113</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H23">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I23">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J23">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N23">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O23">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P23">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q23">
-        <v>2.0838635734725</v>
+        <v>3.769191590398751</v>
       </c>
       <c r="R23">
-        <v>8.335454293890001</v>
+        <v>15.076766361595</v>
       </c>
       <c r="S23">
-        <v>0.0009314268217256032</v>
+        <v>0.001007013174916548</v>
       </c>
       <c r="T23">
-        <v>0.0005765801229200596</v>
+        <v>0.0005926149411770113</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H24">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I24">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J24">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N24">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O24">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P24">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q24">
-        <v>13.631879703747</v>
+        <v>69.52009698650585</v>
       </c>
       <c r="R24">
-        <v>81.79127822248201</v>
+        <v>417.1205819190351</v>
       </c>
       <c r="S24">
-        <v>0.006093056449683358</v>
+        <v>0.01857365217656165</v>
       </c>
       <c r="T24">
-        <v>0.005657667067513743</v>
+        <v>0.01639555082231299</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H25">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I25">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J25">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N25">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O25">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P25">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q25">
-        <v>1.21614203889</v>
+        <v>0.7417529154225001</v>
       </c>
       <c r="R25">
-        <v>7.29685223334</v>
+        <v>4.450517492535001</v>
       </c>
       <c r="S25">
-        <v>0.0005435803612434306</v>
+        <v>0.0001981737835417902</v>
       </c>
       <c r="T25">
-        <v>0.0005047379314061668</v>
+        <v>0.0001749342729595015</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H26">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I26">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J26">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N26">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O26">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P26">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q26">
-        <v>254.9668776919983</v>
+        <v>104.4059053236945</v>
       </c>
       <c r="R26">
-        <v>1529.80126615199</v>
+        <v>626.4354319421669</v>
       </c>
       <c r="S26">
-        <v>0.1139628292164168</v>
+        <v>0.02789407746421491</v>
       </c>
       <c r="T26">
-        <v>0.1058194275898956</v>
+        <v>0.02462298531051384</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H27">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I27">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J27">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>3.981621</v>
       </c>
       <c r="O27">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P27">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q27">
-        <v>60.96109053904331</v>
+        <v>16.035372043901</v>
       </c>
       <c r="R27">
-        <v>548.6498148513898</v>
+        <v>144.318348395109</v>
       </c>
       <c r="S27">
-        <v>0.02724784651573409</v>
+        <v>0.00428416293669712</v>
       </c>
       <c r="T27">
-        <v>0.03795121016007059</v>
+        <v>0.005672649392696634</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H28">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I28">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J28">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N28">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O28">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P28">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q28">
-        <v>11.49601048252</v>
+        <v>6.768279941646666</v>
       </c>
       <c r="R28">
-        <v>103.46409434268</v>
+        <v>60.91451947481999</v>
       </c>
       <c r="S28">
-        <v>0.005138384605674919</v>
+        <v>0.001808278223405605</v>
       </c>
       <c r="T28">
-        <v>0.007156819308294118</v>
+        <v>0.002394336657451352</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H29">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I29">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J29">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N29">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O29">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P29">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q29">
-        <v>28.09904705348333</v>
+        <v>9.900044157264499</v>
       </c>
       <c r="R29">
-        <v>168.5942823209</v>
+        <v>59.400264943587</v>
       </c>
       <c r="S29">
-        <v>0.01255946234855069</v>
+        <v>0.002644990221249606</v>
       </c>
       <c r="T29">
-        <v>0.01166200528451804</v>
+        <v>0.002334816609290393</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H30">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I30">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J30">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N30">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O30">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P30">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q30">
-        <v>183.8137746151578</v>
+        <v>182.5993753506457</v>
       </c>
       <c r="R30">
-        <v>1654.32397153642</v>
+        <v>1643.394378155811</v>
       </c>
       <c r="S30">
-        <v>0.08215944750830501</v>
+        <v>0.04878499070676828</v>
       </c>
       <c r="T30">
-        <v>0.1144329133394991</v>
+        <v>0.06459608376118699</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H31">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I31">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J31">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N31">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O31">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P31">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q31">
-        <v>16.39859384726667</v>
+        <v>1.948265679879</v>
       </c>
       <c r="R31">
-        <v>147.5873446254</v>
+        <v>17.534391118911</v>
       </c>
       <c r="S31">
-        <v>0.007329697751027073</v>
+        <v>0.0005205172411170382</v>
       </c>
       <c r="T31">
-        <v>0.0102089131924021</v>
+        <v>0.0006892155726427833</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H32">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I32">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J32">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N32">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O32">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P32">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q32">
-        <v>139.7996879323352</v>
+        <v>271.6665459060069</v>
       </c>
       <c r="R32">
-        <v>838.7981275940111</v>
+        <v>1629.999275436042</v>
       </c>
       <c r="S32">
-        <v>0.06248642217593066</v>
+        <v>0.07258102549318235</v>
       </c>
       <c r="T32">
-        <v>0.05802135198171277</v>
+        <v>0.06406956913464498</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H33">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I33">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J33">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>3.981621</v>
       </c>
       <c r="O33">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P33">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q33">
-        <v>33.42528845518567</v>
+        <v>41.72440363385932</v>
       </c>
       <c r="R33">
-        <v>300.827596096671</v>
+        <v>375.5196327047339</v>
       </c>
       <c r="S33">
-        <v>0.01494013839840554</v>
+        <v>0.0111474896319577</v>
       </c>
       <c r="T33">
-        <v>0.02080884931038571</v>
+        <v>0.01476036304528805</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H34">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I34">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J34">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N34">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O34">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P34">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q34">
-        <v>6.303323366828001</v>
+        <v>17.61121871192444</v>
       </c>
       <c r="R34">
-        <v>56.729910301452</v>
+        <v>158.50096840732</v>
       </c>
       <c r="S34">
-        <v>0.002817403463744942</v>
+        <v>0.004705181162565567</v>
       </c>
       <c r="T34">
-        <v>0.003924121889652917</v>
+        <v>0.006230118568957264</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H35">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I35">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J35">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N35">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O35">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P35">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q35">
-        <v>15.40685615650167</v>
+        <v>25.76014059916033</v>
       </c>
       <c r="R35">
-        <v>92.44113693901001</v>
+        <v>154.560843594962</v>
       </c>
       <c r="S35">
-        <v>0.006886419651129464</v>
+        <v>0.006882324856379292</v>
       </c>
       <c r="T35">
-        <v>0.006394339194953521</v>
+        <v>0.006075246046699872</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H36">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I36">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J36">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N36">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O36">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P36">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q36">
-        <v>100.7860650821709</v>
+        <v>475.1277375767984</v>
       </c>
       <c r="R36">
-        <v>907.0745857395381</v>
+        <v>4276.149638191186</v>
       </c>
       <c r="S36">
-        <v>0.04504845973063652</v>
+        <v>0.1269396580229319</v>
       </c>
       <c r="T36">
-        <v>0.06274417178758114</v>
+        <v>0.1680804826130289</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H37">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I37">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J37">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N37">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O37">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P37">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q37">
-        <v>8.991435762673335</v>
+        <v>5.069431715753999</v>
       </c>
       <c r="R37">
-        <v>80.92292186406002</v>
+        <v>45.624885441786</v>
       </c>
       <c r="S37">
-        <v>0.004018912054411065</v>
+        <v>0.001354397728178103</v>
       </c>
       <c r="T37">
-        <v>0.005597601113310818</v>
+        <v>0.001793354632805458</v>
       </c>
     </row>
   </sheetData>
